--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577292C-B401-BE46-9DB8-B034F7D9BF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED99C07-8507-B04C-BE7B-4312CB53B616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="-13860" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15220" yWindow="-13880" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>http://purl.obolibrary.org/obo/mf.owl</t>
   </si>
   <si>
-    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]</t>
-  </si>
-  <si>
     <t xml:space="preserve">has occurrent part [BFO:0000117]; has profile [BFO:0000119] </t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>http://purl.obolibrary.org/obo/omrse.owl</t>
   </si>
   <si>
-    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]</t>
-  </si>
-  <si>
     <t>BCIO</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>biological role [CHEBI:24432]</t>
   </si>
   <si>
-    <t>Carcinogen [CHEBI:50903];Alcohol dehydrogenase 1B [CHEBI:50269]</t>
-  </si>
-  <si>
     <t>﻿Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]</t>
   </si>
   <si>
@@ -274,6 +265,15 @@
   </si>
   <si>
     <t>Anatomical system [UBERON:0000467]; Death [UBERON:035944]; Organ [UBERON:0000062]; Life cycle temporal boundary [UBERON:0035943]</t>
+  </si>
+  <si>
+    <t>Carcinogen [CHEBI:50903];Alcohol dehydrogenase 1B [CHEBI:50269]; Flavouring agent [CHEBI:35617]</t>
+  </si>
+  <si>
+    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]</t>
+  </si>
+  <si>
+    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,92 +676,92 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -775,10 +775,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -792,44 +792,44 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -843,64 +843,64 @@
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -911,13 +911,13 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -928,10 +928,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -945,10 +945,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -962,10 +962,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -996,61 +996,61 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED99C07-8507-B04C-BE7B-4312CB53B616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C81A2-820D-8B46-8A1C-AD1AA12234F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="-13880" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="1820" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -120,9 +120,6 @@
     <t>BCIO</t>
   </si>
   <si>
-    <t>http://humanbehaviourchange.org/ontology/bcio_upper.owl</t>
-  </si>
-  <si>
     <t>OBCS</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>fire [ENVO:01000786]; shop [ENVO:00002221]; smoke [ENVO:01000838]</t>
   </si>
   <si>
-    <t>Individual human behaviour [BCIO:036000]; Individual human activity [BCIO:040000]; Population behaviour [BCIO:034000]; Human behaviour [BCIO:042000]; Intervention evaluation [BCIO:038000]</t>
-  </si>
-  <si>
     <t>APOLLO_SV</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]</t>
   </si>
   <si>
-    <t>UBERON</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/uberon.owl</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>plant anatomical entity [PO:0025131]</t>
   </si>
   <si>
-    <t>person [MF:0000016]; mental disposition [MF:0000033]</t>
-  </si>
-  <si>
     <t>PATO</t>
   </si>
   <si>
@@ -261,12 +249,6 @@
     <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
   </si>
   <si>
-    <t>subjective emotional feeling [MFOEM:000006]</t>
-  </si>
-  <si>
-    <t>Anatomical system [UBERON:0000467]; Death [UBERON:035944]; Organ [UBERON:0000062]; Life cycle temporal boundary [UBERON:0035943]</t>
-  </si>
-  <si>
     <t>Carcinogen [CHEBI:50903];Alcohol dehydrogenase 1B [CHEBI:50269]; Flavouring agent [CHEBI:35617]</t>
   </si>
   <si>
@@ -274,13 +256,46 @@
   </si>
   <si>
     <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]</t>
+  </si>
+  <si>
+    <t>http://humanbehaviourchange.org/ontology/bcio_upper_level.owl</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
+  </si>
+  <si>
+    <t>UBERON-ANATOMY</t>
+  </si>
+  <si>
+    <t>UBERON-PROCESS</t>
+  </si>
+  <si>
+    <t>processual entity [UBERON:0000000]</t>
+  </si>
+  <si>
+    <t>Anatomical system [UBERON:0000467]; Organ [UBERON:0000062]</t>
+  </si>
+  <si>
+    <t>Life cycle temporal boundary [UBERON:0035943]; Death [UBERON:035944]; death stage [UBERON:0000071]</t>
+  </si>
+  <si>
+    <t>subjective emotional feeling [MFOEM:000006]; appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
+  </si>
+  <si>
+    <t>person [MF:0000016]; mental disposition [MF:0000033]; cognitive representation [MF:0000031]; mental process [MF:0000020]</t>
+  </si>
+  <si>
+    <t>Individual human behaviour [BCIO:036000]; Individual human activity [BCIO:040000]; Population behaviour [BCIO:034000]; Human behaviour [BCIO:042000]; Intervention evaluation [BCIO:038000]; Process attribute [BCIO:043000]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,6 +310,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCDBE97"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,6 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,7 +684,7 @@
     <col min="5" max="5" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -676,95 +698,101 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -775,13 +803,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -792,47 +820,47 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -843,13 +871,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -860,197 +888,214 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C81A2-820D-8B46-8A1C-AD1AA12234F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB5790F-E75D-2C47-9B4D-AD735E207928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5380" yWindow="1820" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>planned process [OBI:0000011]</t>
   </si>
   <si>
-    <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]</t>
-  </si>
-  <si>
     <t>SEPIO</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>planned process [OBI:0000011]; organisation [OBI:0000245]; dose [OBI:0000984]</t>
   </si>
   <si>
-    <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/uberon.owl</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>http://purl.obolibrary.org/obo/po.owl</t>
   </si>
   <si>
-    <t>whole plant [PO:0005679]</t>
-  </si>
-  <si>
     <t>pharmaceutical [CHEBI:52217]</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t>injury [OGMS:0000102]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO_0000029]; occurrent [BFO_0000003]</t>
-  </si>
-  <si>
     <t>MFOEM</t>
   </si>
   <si>
@@ -289,6 +277,18 @@
   </si>
   <si>
     <t>Individual human behaviour [BCIO:036000]; Individual human activity [BCIO:040000]; Population behaviour [BCIO:034000]; Human behaviour [BCIO:042000]; Intervention evaluation [BCIO:038000]; Process attribute [BCIO:043000]</t>
+  </si>
+  <si>
+    <t>whole plant [PO:0000003]</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]</t>
+  </si>
+  <si>
+    <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]</t>
+  </si>
+  <si>
+    <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]; model [OBCS:0000035]</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,172 +692,172 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -868,81 +868,81 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -953,13 +953,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -970,13 +970,13 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -987,16 +987,16 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1004,16 +1004,16 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1021,81 +1021,81 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB5790F-E75D-2C47-9B4D-AD735E207928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42516C26-39C5-3042-9278-E029352E2390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="1820" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="1800" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -276,19 +276,19 @@
     <t>person [MF:0000016]; mental disposition [MF:0000033]; cognitive representation [MF:0000031]; mental process [MF:0000020]</t>
   </si>
   <si>
-    <t>Individual human behaviour [BCIO:036000]; Individual human activity [BCIO:040000]; Population behaviour [BCIO:034000]; Human behaviour [BCIO:042000]; Intervention evaluation [BCIO:038000]; Process attribute [BCIO:043000]</t>
-  </si>
-  <si>
     <t>whole plant [PO:0000003]</t>
   </si>
   <si>
     <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]</t>
   </si>
   <si>
-    <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]</t>
-  </si>
-  <si>
     <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]; model [OBCS:0000035]</t>
+  </si>
+  <si>
+    <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]; action specification [IAO:0000007]; directive information entity [IAO:0000033]</t>
+  </si>
+  <si>
+    <t>Individual human behaviour [BCIO:036000]; Individual human activity [BCIO:040000]; Population behaviour [BCIO:034000]; Human behaviour [BCIO:042000]; Intervention evaluation [BCIO:038000]; Process attribute [BCIO:043000]; Behaviour change intervention [BCIO:003000]; Intervention [BCIO:037000]</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,7 +704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -715,7 +715,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>44</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>44</v>
@@ -837,7 +837,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
@@ -1007,13 +1007,13 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42516C26-39C5-3042-9278-E029352E2390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627802BC-2AE6-FF46-BD30-4CBBCF9DA01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5380" yWindow="1800" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -174,9 +174,6 @@
     <t>CHEBI-CHEM</t>
   </si>
   <si>
-    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500]</t>
-  </si>
-  <si>
     <t>CHEBI-BIO-ROLE</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]</t>
   </si>
   <si>
-    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]</t>
-  </si>
-  <si>
     <t>http://humanbehaviourchange.org/ontology/bcio_upper_level.owl</t>
   </si>
   <si>
@@ -288,7 +282,25 @@
     <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]; action specification [IAO:0000007]; directive information entity [IAO:0000033]</t>
   </si>
   <si>
-    <t>Individual human behaviour [BCIO:036000]; Individual human activity [BCIO:040000]; Population behaviour [BCIO:034000]; Human behaviour [BCIO:042000]; Intervention evaluation [BCIO:038000]; Process attribute [BCIO:043000]; Behaviour change intervention [BCIO:003000]; Intervention [BCIO:037000]</t>
+    <t>Individual human behaviour [BCIO:036000]; Individual human activity [BCIO:040000]; Population behaviour [BCIO:034000]; Human behaviour [BCIO:042000]; Intervention evaluation [BCIO:038000]; Process attribute [BCIO:043000]; Behaviour change intervention [BCIO:003000]; Intervention [BCIO:037000]; Human population [BCIO:041000]</t>
+  </si>
+  <si>
+    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]</t>
+  </si>
+  <si>
+    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500]; nitrosamine [CHEBI:35803]</t>
+  </si>
+  <si>
+    <t>CHMO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/chmo.owl</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]</t>
+  </si>
+  <si>
+    <t>chromatography [CHMO:0001000]; liquid chromatography [CHMO:0001004]</t>
   </si>
 </sst>
 </file>
@@ -669,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,7 +713,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -709,19 +721,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -735,13 +747,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -752,7 +764,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>45</v>
@@ -760,16 +772,16 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>45</v>
@@ -777,16 +789,16 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>45</v>
@@ -828,16 +840,16 @@
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
@@ -896,16 +908,16 @@
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>44</v>
@@ -913,16 +925,16 @@
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>44</v>
@@ -936,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>42</v>
@@ -956,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>45</v>
@@ -973,7 +985,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>45</v>
@@ -1007,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>44</v>
@@ -1024,7 +1036,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>44</v>
@@ -1041,7 +1053,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>44</v>
@@ -1049,16 +1061,16 @@
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>44</v>
@@ -1066,16 +1078,16 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>44</v>
@@ -1083,18 +1095,35 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E24" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>44</v>
       </c>
     </row>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627802BC-2AE6-FF46-BD30-4CBBCF9DA01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA559490-F647-4246-ABE4-619FE723F5CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5380" yWindow="1800" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,9 +273,6 @@
     <t>whole plant [PO:0000003]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]</t>
-  </si>
-  <si>
     <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]; model [OBCS:0000035]</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>chromatography [CHMO:0001000]; liquid chromatography [CHMO:0001004]</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]; temporal region [BFO:0000008]</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>44</v>
@@ -747,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>44</v>
@@ -764,7 +764,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>45</v>
@@ -985,7 +985,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>45</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>44</v>
@@ -1036,7 +1036,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>44</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>44</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA559490-F647-4246-ABE4-619FE723F5CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C3DDA-029D-8F45-B8A7-B92350F9F4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="1800" windowWidth="19940" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="-16620" windowWidth="19940" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <t>chromatography [CHMO:0001000]; liquid chromatography [CHMO:0001004]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]; temporal region [BFO:0000008]</t>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]; temporal region [BFO:0000008]; fiat object part [﻿BFO:0000024]; immaterial entity [BFO:0000141]</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1008,7 +1008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C3DDA-029D-8F45-B8A7-B92350F9F4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F79DD-BD57-3E45-8822-55835B8B64F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="-16620" windowWidth="19940" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="-17840" windowWidth="19940" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -180,9 +180,6 @@
     <t>biological role [CHEBI:24432]</t>
   </si>
   <si>
-    <t>﻿Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]</t>
-  </si>
-  <si>
     <t>CHEBI-DRUG-ROLE</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
   </si>
   <si>
-    <t>Carcinogen [CHEBI:50903];Alcohol dehydrogenase 1B [CHEBI:50269]; Flavouring agent [CHEBI:35617]</t>
-  </si>
-  <si>
     <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]</t>
   </si>
   <si>
-    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500]; nitrosamine [CHEBI:35803]</t>
-  </si>
-  <si>
     <t>CHMO</t>
   </si>
   <si>
@@ -301,6 +292,24 @@
   </si>
   <si>
     <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]; temporal region [BFO:0000008]; fiat object part [﻿BFO:0000024]; immaterial entity [BFO:0000141]</t>
+  </si>
+  <si>
+    <t>﻿Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]; psychotropic drug [CHEBI:35471]; opioid analgesic [CHEBI:35482]</t>
+  </si>
+  <si>
+    <t>Carcinogen [CHEBI:50903];Alcohol dehydrogenase 1B [CHEBI:50269]; Flavouring agent [CHEBI:35617]; nicotinic acetylcholine receptor agonist [CHEBI:47958]; nicotinic antagonist [CHEBI:48878]; carcinogenic agent [CHEBI:50903]; cannabinoid receptor agonist [CHEBI:67072]; cb1 receptor antagonist [CHEBI:73416]; cb2 receptor agonist [CHEBI:73417]</t>
+  </si>
+  <si>
+    <t>ERO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ero.owl</t>
+  </si>
+  <si>
+    <t>intubation [ERO:0001108]</t>
+  </si>
+  <si>
+    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]</t>
   </si>
 </sst>
 </file>
@@ -681,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -713,7 +722,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -721,19 +730,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -747,13 +756,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
@@ -764,13 +773,13 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>47</v>
       </c>
@@ -781,24 +790,24 @@
         <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>45</v>
@@ -840,16 +849,16 @@
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
@@ -908,16 +917,16 @@
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>44</v>
@@ -925,16 +934,16 @@
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>44</v>
@@ -948,7 +957,7 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>42</v>
@@ -968,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>45</v>
@@ -985,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>45</v>
@@ -1019,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>44</v>
@@ -1036,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>44</v>
@@ -1053,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>44</v>
@@ -1061,16 +1070,16 @@
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>44</v>
@@ -1078,16 +1087,16 @@
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>44</v>
@@ -1095,16 +1104,16 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>44</v>
@@ -1112,19 +1121,36 @@
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E25" s="5" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F79DD-BD57-3E45-8822-55835B8B64F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3526F154-DBD2-8E48-B524-DF0A1CB064E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="-17840" windowWidth="19940" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -294,9 +294,6 @@
     <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]; temporal region [BFO:0000008]; fiat object part [﻿BFO:0000024]; immaterial entity [BFO:0000141]</t>
   </si>
   <si>
-    <t>﻿Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]; psychotropic drug [CHEBI:35471]; opioid analgesic [CHEBI:35482]</t>
-  </si>
-  <si>
     <t>Carcinogen [CHEBI:50903];Alcohol dehydrogenase 1B [CHEBI:50269]; Flavouring agent [CHEBI:35617]; nicotinic acetylcholine receptor agonist [CHEBI:47958]; nicotinic antagonist [CHEBI:48878]; carcinogenic agent [CHEBI:50903]; cannabinoid receptor agonist [CHEBI:67072]; cb1 receptor antagonist [CHEBI:73416]; cb2 receptor agonist [CHEBI:73417]</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]</t>
+  </si>
+  <si>
+    <t>﻿Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]; psychotropic drug [CHEBI:35471]; opioid analgesic [CHEBI:35482]; antitussive [CHEBI:51177]</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,7 +773,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>45</v>
@@ -790,13 +790,13 @@
         <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
@@ -807,7 +807,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>45</v>
@@ -1138,16 +1138,16 @@
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
         <v>89</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>84</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>45</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3526F154-DBD2-8E48-B524-DF0A1CB064E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46E04F-2C7E-8C43-B28E-08211801CD17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>continuant [BFO:0000002]</t>
   </si>
   <si>
-    <t>physical quality [PATO:0001018]</t>
-  </si>
-  <si>
     <t>OGMS</t>
   </si>
   <si>
@@ -306,10 +303,13 @@
     <t>intubation [ERO:0001108]</t>
   </si>
   <si>
-    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]</t>
-  </si>
-  <si>
     <t>﻿Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]; psychotropic drug [CHEBI:35471]; opioid analgesic [CHEBI:35482]; antitussive [CHEBI:51177]</t>
+  </si>
+  <si>
+    <t>physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
+  </si>
+  <si>
+    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]</t>
   </si>
 </sst>
 </file>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,7 +722,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -730,19 +730,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>44</v>
@@ -773,7 +773,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>45</v>
@@ -790,7 +790,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>45</v>
@@ -807,7 +807,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>45</v>
@@ -858,7 +858,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>45</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -926,7 +926,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>44</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>44</v>
@@ -977,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>45</v>
@@ -994,7 +994,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>45</v>
@@ -1028,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>44</v>
@@ -1045,7 +1045,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>44</v>
@@ -1062,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>44</v>
@@ -1070,22 +1070,22 @@
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>44</v>
@@ -1104,16 +1104,16 @@
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>44</v>
@@ -1121,16 +1121,16 @@
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
         <v>82</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>44</v>
@@ -1138,16 +1138,16 @@
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>45</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46E04F-2C7E-8C43-B28E-08211801CD17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139CF241-44BB-4C4C-821C-DAB2EDB2B867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-280" yWindow="-16880" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -129,12 +129,6 @@
     <t>chemical entity [CHEBI:24431]</t>
   </si>
   <si>
-    <t>research activity [SEPIO:0000004]</t>
-  </si>
-  <si>
-    <t>fire [ENVO:01000786]; shop [ENVO:00002221]; smoke [ENVO:01000838]</t>
-  </si>
-  <si>
     <t>APOLLO_SV</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102];  emergency department facility [OMRSE:00000114];  rehabilitation facility [OMRSE:00000106]</t>
   </si>
   <si>
-    <t>planned process [OBI:0000011]; organisation [OBI:0000245]; dose [OBI:0000984]</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/uberon.owl</t>
   </si>
   <si>
@@ -159,9 +150,6 @@
     <t>http://purl.obolibrary.org/obo/doid.owl</t>
   </si>
   <si>
-    <t>HIV infection [DOID:526]</t>
-  </si>
-  <si>
     <t>Intermediates</t>
   </si>
   <si>
@@ -219,9 +207,6 @@
     <t>disorder [OGMS:0000045]</t>
   </si>
   <si>
-    <t>injury [OGMS:0000102]</t>
-  </si>
-  <si>
     <t>MFOEM</t>
   </si>
   <si>
@@ -249,9 +234,6 @@
     <t>processual entity [UBERON:0000000]</t>
   </si>
   <si>
-    <t>Anatomical system [UBERON:0000467]; Organ [UBERON:0000062]</t>
-  </si>
-  <si>
     <t>Life cycle temporal boundary [UBERON:0035943]; Death [UBERON:035944]; death stage [UBERON:0000071]</t>
   </si>
   <si>
@@ -310,6 +292,42 @@
   </si>
   <si>
     <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]</t>
+  </si>
+  <si>
+    <t>OAE</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/oae.owl</t>
+  </si>
+  <si>
+    <t>adverse effect [OAE:0001000];adverse event [OAE:0000001];adverse event outcome [OAE:0003232]</t>
+  </si>
+  <si>
+    <t>alcohol-related birth defect [DOID:0050668];thrombosis [DOID:0060903];dissociative disorder [DOID:10935];impulse control disorder [DOID:10937];conduct disorder [DOID:12995];major depressive disorder [DOID:1470];personality disorder [DOID:1510];cancer [DOID:162];anxiety disorder [DOID:2030];psychotic disorder [DOID:2468];bipolar disorder [DOID:3312];tuberculosis [DOID:399];HIV infection [DOID:526]</t>
+  </si>
+  <si>
+    <t>﻿shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];fire [ENVO:01000786];smoke [ENVO:01000838]</t>
+  </si>
+  <si>
+    <t>GSSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/gsso.owl</t>
+  </si>
+  <si>
+    <t>planned process [OBI:0000011]; organisation [OBI:0000245]; dose [OBI:0000984];﻿extract [OBI:0000423]</t>
+  </si>
+  <si>
+    <t>injury [OGMS:0000102];﻿disease [OGMS:0000031]</t>
+  </si>
+  <si>
+    <t>research activity [SEPIO:0000004];﻿research study [SEPIO:0000125]</t>
+  </si>
+  <si>
+    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314];</t>
+  </si>
+  <si>
+    <t>﻿transgender person  [GSSO:000130];LGBT [GSSO:000137];woman [GSSO:000369];man [GSSO:000370];man who has sex with men [GSSO:000376];woman who has sex with women [GSSO:000379];non binary person  [GSSO:000395];mental disorder [GSSO:000498];sexually transmitted infection (STI) [GSSO:000529];cognitive function [GSSO:000924];bisexual [GSSO:001590];woman who has sex with men [GSSO:001595];man who has sex with women  [GSSO:001596];man who has sex with women and men.  [GSSO:001802];attitude [GSSO:002821];social inequality  [GSSO:002957];gender inequality  [GSSO:002961];race inequality [GSSO:002962];human rights organisation  [GSSO:003501];woman who has sex with men and women [GSSO:004516];non-profit organisation [GSSO:004615];older person [GSSO:005301];advocacy organisation  [GSSO:005379];health organisation  [GSSO:007328];health inequality  [GSSO:009381]</t>
   </si>
 </sst>
 </file>
@@ -690,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,10 +737,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -730,19 +748,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -756,15 +774,15 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>30</v>
@@ -773,47 +791,47 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -824,10 +842,10 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -841,44 +859,44 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -892,10 +910,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -909,61 +927,61 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -977,10 +995,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -994,10 +1012,10 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1014,7 +1032,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="102" x14ac:dyDescent="0.2">
@@ -1028,10 +1046,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.2">
@@ -1045,10 +1063,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1062,95 +1080,129 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>45</v>
+      <c r="E27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="306" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139CF241-44BB-4C4C-821C-DAB2EDB2B867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E09F4-A5D4-1C4A-BBA2-1D804D7B70A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-280" yWindow="-16880" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="-18260" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
   </si>
   <si>
-    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]</t>
-  </si>
-  <si>
     <t>http://humanbehaviourchange.org/ontology/bcio_upper_level.owl</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
   </si>
   <si>
-    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]</t>
-  </si>
-  <si>
     <t>OAE</t>
   </si>
   <si>
@@ -324,10 +318,16 @@
     <t>research activity [SEPIO:0000004];﻿research study [SEPIO:0000125]</t>
   </si>
   <si>
-    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314];</t>
-  </si>
-  <si>
     <t>﻿transgender person  [GSSO:000130];LGBT [GSSO:000137];woman [GSSO:000369];man [GSSO:000370];man who has sex with men [GSSO:000376];woman who has sex with women [GSSO:000379];non binary person  [GSSO:000395];mental disorder [GSSO:000498];sexually transmitted infection (STI) [GSSO:000529];cognitive function [GSSO:000924];bisexual [GSSO:001590];woman who has sex with men [GSSO:001595];man who has sex with women  [GSSO:001596];man who has sex with women and men.  [GSSO:001802];attitude [GSSO:002821];social inequality  [GSSO:002957];gender inequality  [GSSO:002961];race inequality [GSSO:002962];human rights organisation  [GSSO:003501];woman who has sex with men and women [GSSO:004516];non-profit organisation [GSSO:004615];older person [GSSO:005301];advocacy organisation  [GSSO:005379];health organisation  [GSSO:007328];health inequality  [GSSO:009381]</t>
+  </si>
+  <si>
+    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314]</t>
+  </si>
+  <si>
+    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465]</t>
+  </si>
+  <si>
+    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]; is part of [BFO:0000050]; has quality [RO:0000086]</t>
   </si>
 </sst>
 </file>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,7 +740,7 @@
         <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
@@ -748,19 +748,19 @@
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
@@ -774,13 +774,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>41</v>
@@ -808,7 +808,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>41</v>
@@ -825,7 +825,7 @@
         <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>41</v>
@@ -842,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>40</v>
@@ -859,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>40</v>
@@ -876,7 +876,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>41</v>
@@ -910,7 +910,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>40</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="13" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -944,7 +944,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
@@ -952,16 +952,16 @@
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>40</v>
@@ -978,13 +978,13 @@
         <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -995,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>41</v>
@@ -1012,7 +1012,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>41</v>
@@ -1046,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>40</v>
@@ -1063,7 +1063,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>40</v>
@@ -1080,7 +1080,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>40</v>
@@ -1097,7 +1097,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>40</v>
@@ -1114,7 +1114,7 @@
         <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>40</v>
@@ -1131,7 +1131,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>40</v>
@@ -1139,16 +1139,16 @@
     </row>
     <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>40</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>41</v>
@@ -1173,16 +1173,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>41</v>
@@ -1190,16 +1190,16 @@
     </row>
     <row r="28" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>41</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E09F4-A5D4-1C4A-BBA2-1D804D7B70A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB281ABC-9653-004F-B6A4-866273F5B940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="-18260" windowWidth="25600" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -300,15 +300,6 @@
     <t>alcohol-related birth defect [DOID:0050668];thrombosis [DOID:0060903];dissociative disorder [DOID:10935];impulse control disorder [DOID:10937];conduct disorder [DOID:12995];major depressive disorder [DOID:1470];personality disorder [DOID:1510];cancer [DOID:162];anxiety disorder [DOID:2030];psychotic disorder [DOID:2468];bipolar disorder [DOID:3312];tuberculosis [DOID:399];HIV infection [DOID:526]</t>
   </si>
   <si>
-    <t>﻿shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];fire [ENVO:01000786];smoke [ENVO:01000838]</t>
-  </si>
-  <si>
-    <t>GSSO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/gsso.owl</t>
-  </si>
-  <si>
     <t>planned process [OBI:0000011]; organisation [OBI:0000245]; dose [OBI:0000984];﻿extract [OBI:0000423]</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>research activity [SEPIO:0000004];﻿research study [SEPIO:0000125]</t>
   </si>
   <si>
-    <t>﻿transgender person  [GSSO:000130];LGBT [GSSO:000137];woman [GSSO:000369];man [GSSO:000370];man who has sex with men [GSSO:000376];woman who has sex with women [GSSO:000379];non binary person  [GSSO:000395];mental disorder [GSSO:000498];sexually transmitted infection (STI) [GSSO:000529];cognitive function [GSSO:000924];bisexual [GSSO:001590];woman who has sex with men [GSSO:001595];man who has sex with women  [GSSO:001596];man who has sex with women and men.  [GSSO:001802];attitude [GSSO:002821];social inequality  [GSSO:002957];gender inequality  [GSSO:002961];race inequality [GSSO:002962];human rights organisation  [GSSO:003501];woman who has sex with men and women [GSSO:004516];non-profit organisation [GSSO:004615];older person [GSSO:005301];advocacy organisation  [GSSO:005379];health organisation  [GSSO:007328];health inequality  [GSSO:009381]</t>
-  </si>
-  <si>
     <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314]</t>
   </si>
   <si>
@@ -328,6 +316,9 @@
   </si>
   <si>
     <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]; is part of [BFO:0000050]; has quality [RO:0000086]</t>
+  </si>
+  <si>
+    <t>﻿shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];fire [ENVO:01000786];smoke [ENVO:01000838];environmental disposition [ENVO:01000452]</t>
   </si>
 </sst>
 </file>
@@ -708,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,7 +782,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>41</v>
@@ -831,7 +822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -842,7 +833,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>40</v>
@@ -859,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>40</v>
@@ -910,7 +901,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>40</v>
@@ -944,7 +935,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
@@ -995,7 +986,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>41</v>
@@ -1131,7 +1122,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>40</v>
@@ -1185,23 +1176,6 @@
         <v>87</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="306" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="5" t="s">
         <v>41</v>
       </c>
     </row>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB281ABC-9653-004F-B6A4-866273F5B940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB41B91-81D8-C349-A6C0-42F2C4880756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12020" yWindow="-16740" windowWidth="25600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -246,12 +246,6 @@
     <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]; model [OBCS:0000035]</t>
   </si>
   <si>
-    <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]; action specification [IAO:0000007]; directive information entity [IAO:0000033]</t>
-  </si>
-  <si>
-    <t>Individual human behaviour [BCIO:036000]; Individual human activity [BCIO:040000]; Population behaviour [BCIO:034000]; Human behaviour [BCIO:042000]; Intervention evaluation [BCIO:038000]; Process attribute [BCIO:043000]; Behaviour change intervention [BCIO:003000]; Intervention [BCIO:037000]; Human population [BCIO:041000]</t>
-  </si>
-  <si>
     <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>chromatography [CHMO:0001000]; liquid chromatography [CHMO:0001004]</t>
   </si>
   <si>
-    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]; temporal region [BFO:0000008]; fiat object part [﻿BFO:0000024]; immaterial entity [BFO:0000141]</t>
-  </si>
-  <si>
     <t>Carcinogen [CHEBI:50903];Alcohol dehydrogenase 1B [CHEBI:50269]; Flavouring agent [CHEBI:35617]; nicotinic acetylcholine receptor agonist [CHEBI:47958]; nicotinic antagonist [CHEBI:48878]; carcinogenic agent [CHEBI:50903]; cannabinoid receptor agonist [CHEBI:67072]; cb1 receptor antagonist [CHEBI:73416]; cb2 receptor agonist [CHEBI:73417]</t>
   </si>
   <si>
@@ -318,7 +309,16 @@
     <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]; is part of [BFO:0000050]; has quality [RO:0000086]</t>
   </si>
   <si>
-    <t>﻿shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];fire [ENVO:01000786];smoke [ENVO:01000838];environmental disposition [ENVO:01000452]</t>
+    <t>﻿personal role [BCIO:006081];human age [BCIO:015015];bisexual [BCIO:015050];person experiencing homelessness [BCIO:015205];highest level of formal educational qualification achieved [BCIO:015240];inpatient role [BCIO:015420];outpatient role [BCIO:015425];population behaviour [BCIO:034000];individual human behaviour [BCIO:036000];intervention [BCIO:037000];individual human activity [BCIO:040000];human population [BCIO:041000];human behaviour [BCIO:042000];personal attribute [BCIO:050300];personal disposition [BCIO:050301];personal life attribute [BCIO:050302];personal quality [BCIO:050303]</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]; temporal region [BFO:0000008]; fiat object part [﻿BFO:0000024]; immaterial entity [BFO:0000141]; ﻿spatial region [BFO:0000006];specifically dependent continuant [BFO:0000020]</t>
+  </si>
+  <si>
+    <t>﻿human construction [ENVO:00000070];building [ENVO:00000073];shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];environmental system [ENVO:01000254];environmental disposition [ENVO:01000452];fire [ENVO:01000786];smoke [ENVO:01000838];commercial building [ENVO:01001222];construction [ENVO:01001813]</t>
+  </si>
+  <si>
+    <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]; action specification [IAO:0000007]; directive information entity [IAO:0000033];﻿information content entity [IAO:0000030]</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,452 +734,461 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="388" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="388" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="122" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>94</v>
+      <c r="D16" t="s">
+        <v>84</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="s">
+    <row r="24" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F27">
+    <sortCondition ref="A2:A27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB41B91-81D8-C349-A6C0-42F2C4880756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D597F-BE7D-0948-942E-C4F857215D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12020" yWindow="-16740" windowWidth="25600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
   </si>
   <si>
-    <t>http://humanbehaviourchange.org/ontology/bcio_upper_level.owl</t>
-  </si>
-  <si>
     <t>Prefix</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]; action specification [IAO:0000007]; directive information entity [IAO:0000033];﻿information content entity [IAO:0000030]</t>
+  </si>
+  <si>
+    <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,7 +731,7 @@
         <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -757,19 +757,19 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>40</v>
@@ -819,7 +819,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>41</v>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>41</v>
@@ -854,7 +854,7 @@
         <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>41</v>
@@ -863,16 +863,16 @@
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>40</v>
@@ -889,7 +889,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>41</v>
@@ -906,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>40</v>
@@ -914,16 +914,16 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>41</v>
@@ -940,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
@@ -957,7 +957,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>40</v>
@@ -974,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>40</v>
@@ -982,16 +982,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>41</v>
@@ -1008,7 +1008,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>40</v>
@@ -1026,7 +1026,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>40</v>
@@ -1043,7 +1043,7 @@
         <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>40</v>
@@ -1077,7 +1077,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>40</v>
@@ -1094,7 +1094,7 @@
         <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>41</v>
@@ -1111,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>41</v>
@@ -1128,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>41</v>
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>40</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="26" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
@@ -1162,7 +1162,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>40</v>
@@ -1170,16 +1170,16 @@
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>40</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D597F-BE7D-0948-942E-C4F857215D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F957F5-2BA0-B14F-A973-B8AE86A68AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12020" yWindow="-16740" windowWidth="25600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,6 @@
     <t>research activity [SEPIO:0000004];﻿research study [SEPIO:0000125]</t>
   </si>
   <si>
-    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314]</t>
-  </si>
-  <si>
     <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465]</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
+  </si>
+  <si>
+    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314];respiratory system [UBERON:0001004]</t>
   </si>
 </sst>
 </file>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,13 +757,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>40</v>
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>40</v>
@@ -836,7 +836,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>41</v>
@@ -906,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>40</v>
@@ -940,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
@@ -1128,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>41</v>
@@ -1151,7 +1151,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>40</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -171,7 +171,7 @@
     <t xml:space="preserve">chemical entity [CHEBI:24431]</t>
   </si>
   <si>
-    <t xml:space="preserve">Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465]</t>
+    <t xml:space="preserve">Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]</t>
   </si>
   <si>
     <t xml:space="preserve">CHEBI-DRUG-ROLE</t>
@@ -905,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1026,7 +1026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="313.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="327.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -386,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
@@ -1143,6 +1143,34 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CHEBI</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/chebi.owl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1144,32 +1144,32 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="9" t="inlineStr">
         <is>
           <t>CHEBI</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="9" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/chebi.owl</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F28" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="D4" s="12" t="inlineStr">
         <is>
-          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; occurrent [BFO:0000003]; process boundary [BFO:0000035]; temporal region [BFO:0000008]; fiat object part [﻿BFO:0000024]; immaterial entity [BFO:0000141]; ﻿spatial region [BFO:0000006];specifically dependent continuant [BFO:0000020]</t>
+          <t>object [BFO:0000030]; process [BFO:0000015]; site [BFO:0000029]; role [BFO:0000023]; disposition [BFO:0000016]; immaterial entity [BFO:0000141]; fiat object [BFO:0000024]; fiat object part [﻿BFO:0000024]; specifically dependent continuant [BFO:0000020]; process profile [BFO:0000144]; temporal region [BFO:0000008]; object aggregate [BFO:0000027]; process boundary [BFO:0000035]; occurrent [BFO:0000003]; ﻿spatial region [BFO:0000006]</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]</t>
+          <t>aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; methanol [CHEBI:17790]</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -386,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
@@ -1171,6 +1171,34 @@
       </c>
       <c r="F28" s="9" t="inlineStr"/>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GSSO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/gsso.owl</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>money [GSSO:010609]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1172,32 +1172,32 @@
       <c r="F28" s="9" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>GSSO</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="9" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/gsso.owl</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C29" s="9" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D29" s="9" t="inlineStr">
         <is>
           <t>money [GSSO:010609]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" s="9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F29" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -972,7 +972,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
+          <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]</t>
         </is>
       </c>
       <c r="E21" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -386,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
@@ -1199,6 +1199,34 @@
       </c>
       <c r="F29" s="9" t="inlineStr"/>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NCIT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ncit.owl</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>agitation [NCIT:C79530]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -386,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
@@ -1200,32 +1200,60 @@
       <c r="F29" s="9" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>NCIT</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="9" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/ncit.owl</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
         <is>
           <t>agitation [NCIT:C79530]</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F30" s="9" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/hp.owl</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>aortic stiffness [HP:0030965]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; methanol [CHEBI:17790]</t>
+          <t>aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1228,32 +1228,32 @@
       <c r="F30" s="9" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="9" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="9" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/hp.owl</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C31" s="9" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
         <is>
           <t>aortic stiffness [HP:0030965]</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="E31" s="9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -386,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
@@ -1255,6 +1255,34 @@
       </c>
       <c r="F31" s="9" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UBERON</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/uberon.owl</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>death [UBERON:0035944]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -891,7 +891,7 @@
       </c>
       <c r="D18" s="12" t="inlineStr">
         <is>
-          <t>﻿extract [OBI:0000423]; dose [OBI:0000984]; organisation [OBI:0000245]; protocol [OBI:0000272]; planned process [OBI:0000011]</t>
+          <t>﻿extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -1256,32 +1256,32 @@
       <c r="F31" s="9" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>UBERON</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="9" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/uberon.owl</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t>death [UBERON:0035944]</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -386,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
@@ -1283,6 +1283,34 @@
       </c>
       <c r="F32" s="9" t="inlineStr"/>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/sdgio.owl</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>unemployed status [SDGIO:00010026]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>money [GSSO:010609]</t>
+          <t>advocacy organisation [GSSO:005379]; money [GSSO:010609]</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">
@@ -1284,32 +1284,32 @@
       <c r="F32" s="9" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>SDGIO</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="9" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/sdgio.owl</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>unemployed status [SDGIO:00010026]</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="E33" s="9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>advocacy organisation [GSSO:005379]; money [GSSO:010609]</t>
+          <t>advocacy organisation [GSSO:005379]; money [GSSO:010609]; health organisation [GSSO:007328]</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>advocacy organisation [GSSO:005379]; money [GSSO:010609]; health organisation [GSSO:007328]</t>
+          <t>advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]; money [GSSO:010609]; health organisation [GSSO:007328]</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D29" s="9" t="inlineStr">
         <is>
-          <t>advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]; money [GSSO:010609]; health organisation [GSSO:007328]</t>
+          <t>advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]; money [GSSO:010609]; health organisation [GSSO:007328]; non-profit organisation [GSSO:004615]</t>
         </is>
       </c>
       <c r="E29" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -386,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
@@ -1311,6 +1311,34 @@
       </c>
       <c r="F33" s="9" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SIO</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/sio.owl</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>geographic region [SIO:000414]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1312,32 +1312,32 @@
       <c r="F33" s="9" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
         <is>
           <t>SIO</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/sio.owl</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>geographic region [SIO:000414]</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>geographic region [SIO:000414]; geolegal region [SIO:000413]</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1329,7 +1329,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>geographic region [SIO:000414]; geolegal region [SIO:000413]</t>
+          <t>geographic region [SIO:000414]; geolegal region [SIO:000413]; geopolitical region [SIO:000415]</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -945,7 +945,7 @@
       </c>
       <c r="D20" s="12" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102];  emergency department facility [OMRSE:00000114];  rehabilitation facility [OMRSE:00000106]</t>
+          <t>healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -701,7 +701,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>﻿human construction [ENVO:00000070];building [ENVO:00000073];shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];environmental system [ENVO:01000254];environmental disposition [ENVO:01000452];fire [ENVO:01000786];smoke [ENVO:01000838];commercial building [ENVO:01001222];construction [ENVO:01001813]</t>
+          <t>smoke [ENVO:01000838]; environmental system [ENVO:01000254]; shop [ENVO:00002221]; ﻿human construction [ENVO:00000070]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; aerosol [ENVO:00010505]; building [ENVO:00000073]; commercial building [ENVO:01001222]; environmental disposition [ENVO:01000452]; laboratory facility [ENVO:01001406]; construction [ENVO:01001813]</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -945,7 +945,7 @@
       </c>
       <c r="D20" s="12" t="inlineStr">
         <is>
-          <t>healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; facility [OMRSE:00000062]</t>
+          <t>residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -918,7 +918,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>injury [OGMS:0000102];﻿disease [OGMS:0000031]</t>
+          <t>﻿disease [OGMS:0000031]; treatment satisfaction [OGMS:0000090]; injury [OGMS:0000102]</t>
         </is>
       </c>
       <c r="E19" s="9" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t xml:space="preserve">Ontology ID</t>
   </si>
@@ -535,15 +535,6 @@
   </si>
   <si>
     <t xml:space="preserve">death [UBERON:0035944]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.obolibrary.org/obo/sio.owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geographic region [SIO:000414]; geolegal region [SIO:000413]; geopolitical region [SIO:000415]</t>
   </si>
 </sst>
 </file>
@@ -652,31 +643,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -932,7 +923,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,24 +1457,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t xml:space="preserve">Ontology ID</t>
   </si>
@@ -510,7 +510,7 @@
     <t xml:space="preserve">processual entity [UBERON:0000000]</t>
   </si>
   <si>
-    <t xml:space="preserve">Life cycle temporal boundary [UBERON:0035943]; Death [UBERON:035944]; death stage [UBERON:0000071]</t>
+    <t xml:space="preserve">Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
   </si>
   <si>
     <t xml:space="preserve">GSSO</t>
@@ -520,21 +520,6 @@
   </si>
   <si>
     <t xml:space="preserve">advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]; money [GSSO:010609]; health organisation [GSSO:007328]; non-profit organisation [GSSO:004615]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.obolibrary.org/obo/hp.owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aortic stiffness [HP:0030965]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBERON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">death [UBERON:0035944]</t>
   </si>
 </sst>
 </file>
@@ -923,7 +908,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1421,42 +1406,8 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -513,13 +513,13 @@
     <t xml:space="preserve">Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
   </si>
   <si>
-    <t xml:space="preserve">GSSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://purl.obolibrary.org/obo/gsso.owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]; money [GSSO:010609]; health organisation [GSSO:007328]; non-profit organisation [GSSO:004615]</t>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://purl.obolibrary.org/obo/hp.owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aortic stiffness [HP:0030965]</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>﻿personal role [BCIO:006081];human age [BCIO:015015];bisexual [BCIO:015050];person experiencing homelessness [BCIO:015205];highest level of formal educational qualification achieved [BCIO:015240];inpatient role [BCIO:015420];outpatient role [BCIO:015425];population behaviour [BCIO:034000];individual human behaviour [BCIO:036000];intervention [BCIO:037000];individual human activity [BCIO:040000];human population [BCIO:041000];human behaviour [BCIO:042000];personal attribute [BCIO:050300];personal disposition [BCIO:050301];personal life attribute [BCIO:050302];personal quality [BCIO:050303]</t>
+          <t>personal attribute [BCIO:050300]; subjective want [BCIO:050317]; individual human activity [BCIO:040000]; human population [BCIO:041000]; person experiencing homelessness [BCIO:015205]; bisexual [BCIO:015050]; intervention [BCIO:037000]; individual human behaviour [BCIO:036000]; personal disposition [BCIO:050301]; inpatient role [BCIO:015420]; personal quality [BCIO:050303]; ﻿personal role [BCIO:006081]; outpatient role [BCIO:015425]; human age [BCIO:015015]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; population behaviour [BCIO:034000]; personal life attribute [BCIO:050302]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>personal attribute [BCIO:050300]; subjective want [BCIO:050317]; individual human activity [BCIO:040000]; human population [BCIO:041000]; person experiencing homelessness [BCIO:015205]; bisexual [BCIO:015050]; intervention [BCIO:037000]; individual human behaviour [BCIO:036000]; personal disposition [BCIO:050301]; inpatient role [BCIO:015420]; personal quality [BCIO:050303]; ﻿personal role [BCIO:006081]; outpatient role [BCIO:015425]; human age [BCIO:015015]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; population behaviour [BCIO:034000]; personal life attribute [BCIO:050302]</t>
+          <t>personal attribute [BCIO:050300]; subjective want [BCIO:050317]; individual human activity [BCIO:040000]; human population [BCIO:041000]; person experiencing homelessness [BCIO:015205]; bisexual [BCIO:015050]; intervention [BCIO:037000]; individual human behaviour [BCIO:036000]; personal disposition [BCIO:050301]; inpatient role [BCIO:015420]; personal quality [BCIO:050303]; ﻿personal role [BCIO:006081]; outpatient role [BCIO:015425]; human age [BCIO:015015]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; population behaviour [BCIO:034000]; hospital outpatient facility [BCIO:026015]; personal life attribute [BCIO:050302]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>personal attribute [BCIO:050300]; subjective want [BCIO:050317]; individual human activity [BCIO:040000]; human population [BCIO:041000]; person experiencing homelessness [BCIO:015205]; bisexual [BCIO:015050]; intervention [BCIO:037000]; individual human behaviour [BCIO:036000]; personal disposition [BCIO:050301]; inpatient role [BCIO:015420]; personal quality [BCIO:050303]; ﻿personal role [BCIO:006081]; outpatient role [BCIO:015425]; human age [BCIO:015015]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; population behaviour [BCIO:034000]; hospital outpatient facility [BCIO:026015]; personal life attribute [BCIO:050302]</t>
+          <t>personal attribute [BCIO:050300]; subjective want [BCIO:050317]; individual human activity [BCIO:040000]; within-country location [BCIO:026002]; human population [BCIO:041000]; person experiencing homelessness [BCIO:015205]; bisexual [BCIO:015050]; intervention [BCIO:037000]; individual human behaviour [BCIO:036000]; personal disposition [BCIO:050301]; inpatient role [BCIO:015420]; personal quality [BCIO:050303]; ﻿personal role [BCIO:006081]; outpatient role [BCIO:015425]; human age [BCIO:015015]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; population behaviour [BCIO:034000]; hospital outpatient facility [BCIO:026015]; personal life attribute [BCIO:050302]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061]; within-country location [BCIO:026002]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]</t>
+          <t>outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061]; within-country location [BCIO:026002]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; inpatient role [BCIO:015420]; ﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
@@ -1178,6 +1178,34 @@
       </c>
       <c r="F28" s="8" t="n"/>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/afp.owl</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>measurement [AFP:0000225]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
     <row r="1048571" ht="12.75" customHeight="1" s="14"/>
     <row r="1048572" ht="12.75" customHeight="1" s="14"/>
     <row r="1048573" ht="12.75" customHeight="1" s="14"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1179,32 +1179,32 @@
       <c r="F28" s="8" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="8" t="inlineStr">
         <is>
           <t>GSSO</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>http://purl.obolibrary.org/obo/gsso.owl</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
         <is>
           <t>money [GSSO:010609]</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr"/>
     </row>
     <row r="1048570" ht="12.75" customHeight="1" s="14"/>
     <row r="1048571" ht="12.75" customHeight="1" s="14"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="D3" s="12" t="inlineStr">
         <is>
-          <t>outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061]; within-country location [BCIO:026002]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; inpatient role [BCIO:015420]; ﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]</t>
+          <t>outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061]; within-country location [BCIO:026002]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E0637E6B8CF40C5592BFB5B3B6E30334619E6898" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97F2047A-3F23-446A-98ED-36DFB8107C43}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_E0637E6B8CF40C5592BFB5B3B6E30334619E6898" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD39DD8A-95A3-478E-A4C0-340ABFC79066}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]; prescribing behaviour [(BCIO:050354]; within-country location [BCIO:026002]</t>
+      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]; prescribing behaviour [BCIO:050354]; within-country location [BCIO:026002]</t>
     </r>
   </si>
 </sst>
@@ -690,6 +690,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_E0637E6B8CF40C5592BFB5B3B6E30334619E6898" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD39DD8A-95A3-478E-A4C0-340ABFC79066}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4504E-C872-6348-AADA-29409BACEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -155,15 +155,67 @@
     <t>chemical entity [CHEBI:24431]</t>
   </si>
   <si>
-    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
-  </si>
-  <si>
     <t>CHEBI-DRUG-ROLE</t>
   </si>
   <si>
     <t>pharmaceutical [CHEBI:52217]</t>
   </si>
   <si>
+    <t>CHMO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/chmo.owl</t>
+  </si>
+  <si>
+    <t>process [BFO:0000015]</t>
+  </si>
+  <si>
+    <t>chromatography [CHMO:0001000]; liquid chromatography [CHMO:0001004]</t>
+  </si>
+  <si>
+    <t>DOID</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/doid.owl</t>
+  </si>
+  <si>
+    <t>disease [DOID:4]</t>
+  </si>
+  <si>
+    <t>alcohol-related birth defect [DOID:0050668];thrombosis [DOID:0060903];dissociative disorder [DOID:10935];impulse control disorder [DOID:10937];conduct disorder [DOID:12995];major depressive disorder [DOID:1470];personality disorder [DOID:1510];cancer [DOID:162];anxiety disorder [DOID:2030];psychotic disorder [DOID:2468];bipolar disorder [DOID:3312];tuberculosis [DOID:399];HIV infection [DOID:526]</t>
+  </si>
+  <si>
+    <t>ENVO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/envo.owl</t>
+  </si>
+  <si>
+    <t>ERO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ero.owl</t>
+  </si>
+  <si>
+    <t>intubation [ERO:0001108]</t>
+  </si>
+  <si>
+    <t>IAO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/iao.owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]; action specification [IAO:0000007]; directive information entity [IAO:0000033];</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -177,53 +229,284 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>information content entity [IAO:0000030]</t>
+    </r>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/mf.owl</t>
+  </si>
+  <si>
+    <t>person [MF:0000016]; mental disposition [MF:0000033]; cognitive representation [MF:0000031]; mental process [MF:0000020]</t>
+  </si>
+  <si>
+    <t>MFOEM</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
+  </si>
+  <si>
+    <t>subjective emotional feeling [MFOEM:000006]; appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
+  </si>
+  <si>
+    <t>OAE</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/oae.owl</t>
+  </si>
+  <si>
+    <t>adverse effect [OAE:0001000];adverse event [OAE:0000001];adverse event outcome [OAE:0003232]</t>
+  </si>
+  <si>
+    <t>OBCS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/obcs.owl</t>
+  </si>
+  <si>
+    <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]; model [OBCS:0000035]</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/obi.owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t>extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]</t>
+    </r>
+  </si>
+  <si>
+    <t>OGMS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ogms.owl</t>
+  </si>
+  <si>
+    <t>disorder [OGMS:0000045]</t>
+  </si>
+  <si>
+    <t>OMRSE</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/omrse.owl</t>
+  </si>
+  <si>
+    <t>residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; facility [OMRSE:00000062]</t>
+  </si>
+  <si>
+    <t>PATO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/pato.owl</t>
+  </si>
+  <si>
+    <t>continuant [BFO:0000002]</t>
+  </si>
+  <si>
+    <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/po.owl</t>
+  </si>
+  <si>
+    <t>plant anatomical entity [PO:0025131]</t>
+  </si>
+  <si>
+    <t>whole plant [PO:0000003]</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ro.owl</t>
+  </si>
+  <si>
+    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]</t>
+  </si>
+  <si>
+    <t>RO-CORE</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ro/core.owl</t>
+  </si>
+  <si>
+    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]; is part of [BFO:0000050]; has quality [RO:0000086]</t>
+  </si>
+  <si>
+    <t>SEPIO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/sepio.owl</t>
+  </si>
+  <si>
+    <t>planned process [OBI:0000011]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>research activity [SEPIO:0000004];</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>research study [SEPIO:0000125]</t>
+    </r>
+  </si>
+  <si>
+    <t>UBERON-ANATOMY</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/uberon.owl</t>
+  </si>
+  <si>
+    <t>anatomical entity [UBERON:0001062]</t>
+  </si>
+  <si>
+    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314];respiratory system [UBERON:0001004]</t>
+  </si>
+  <si>
+    <t>UBERON-PROCESS</t>
+  </si>
+  <si>
+    <t>processual entity [UBERON:0000000]</t>
+  </si>
+  <si>
+    <t>Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/hp.owl</t>
+  </si>
+  <si>
+    <t>aortic stiffness [HP:0030965]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061]; within-country location [BCIO:026002]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]; prescribing behaviour [BCIO:050354]; within-country location [BCIO:026002]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t>Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]; psychotropic drug [CHEBI:35471]; opioid analgesic [CHEBI:35482]; antitussive [CHEBI:51177]</t>
     </r>
-  </si>
-  <si>
-    <t>CHMO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/chmo.owl</t>
-  </si>
-  <si>
-    <t>process [BFO:0000015]</t>
-  </si>
-  <si>
-    <t>chromatography [CHMO:0001000]; liquid chromatography [CHMO:0001004]</t>
-  </si>
-  <si>
-    <t>DOID</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/doid.owl</t>
-  </si>
-  <si>
-    <t>disease [DOID:4]</t>
-  </si>
-  <si>
-    <t>alcohol-related birth defect [DOID:0050668];thrombosis [DOID:0060903];dissociative disorder [DOID:10935];impulse control disorder [DOID:10937];conduct disorder [DOID:12995];major depressive disorder [DOID:1470];personality disorder [DOID:1510];cancer [DOID:162];anxiety disorder [DOID:2030];psychotic disorder [DOID:2468];bipolar disorder [DOID:3312];tuberculosis [DOID:399];HIV infection [DOID:526]</t>
-  </si>
-  <si>
-    <t>ENVO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/envo.owl</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
+      </rPr>
+      <t>; second generation antipsychotic [CHEBI:65191]</t>
+    </r>
+  </si>
+  <si>
+    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">smoke [ENVO:01000838]; environmental system [ENVO:01000254]; shop [ENVO:00002221]; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">smoke [ENVO:01000838]; environmental system [ENVO:01000254]; shop [ENVO:00002221]; </t>
+      <t>human construction [ENVO:00000070]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; aerosol [ENVO:00010505]; building [ENVO:00000073]; commercial building [ENVO:01001222]; environmental disposition [ENVO:01000452]; laboratory facility [ENVO:01001406]; construction [ENVO:01001813]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>﻿</t>
     </r>
     <r>
       <rPr>
@@ -231,8 +514,9 @@
         <color theme="1"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
-      </rPr>
-      <t>﻿</t>
+        <charset val="1"/>
+      </rPr>
+      <t>disease [OGMS:0000031]; treatment satisfaction [OGMS:0000090]; injury [OGMS:0000102]</t>
     </r>
     <r>
       <rPr>
@@ -240,293 +524,8 @@
         <color theme="1"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>human construction [ENVO:00000070]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; aerosol [ENVO:00010505]; building [ENVO:00000073]; commercial building [ENVO:01001222]; environmental disposition [ENVO:01000452]; laboratory facility [ENVO:01001406]; construction [ENVO:01001813]</t>
-    </r>
-  </si>
-  <si>
-    <t>ERO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ero.owl</t>
-  </si>
-  <si>
-    <t>intubation [ERO:0001108]</t>
-  </si>
-  <si>
-    <t>IAO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/iao.owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]; action specification [IAO:0000007]; directive information entity [IAO:0000033];</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>information content entity [IAO:0000030]</t>
-    </r>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/mf.owl</t>
-  </si>
-  <si>
-    <t>person [MF:0000016]; mental disposition [MF:0000033]; cognitive representation [MF:0000031]; mental process [MF:0000020]</t>
-  </si>
-  <si>
-    <t>MFOEM</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
-  </si>
-  <si>
-    <t>subjective emotional feeling [MFOEM:000006]; appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
-  </si>
-  <si>
-    <t>OAE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/oae.owl</t>
-  </si>
-  <si>
-    <t>adverse effect [OAE:0001000];adverse event [OAE:0000001];adverse event outcome [OAE:0003232]</t>
-  </si>
-  <si>
-    <t>OBCS</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/obcs.owl</t>
-  </si>
-  <si>
-    <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]; model [OBCS:0000035]</t>
-  </si>
-  <si>
-    <t>OBI</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/obi.owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]</t>
-    </r>
-  </si>
-  <si>
-    <t>OGMS</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ogms.owl</t>
-  </si>
-  <si>
-    <t>disorder [OGMS:0000045]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>disease [OGMS:0000031]; treatment satisfaction [OGMS:0000090]; injury [OGMS:0000102]</t>
-    </r>
-  </si>
-  <si>
-    <t>OMRSE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/omrse.owl</t>
-  </si>
-  <si>
-    <t>residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; facility [OMRSE:00000062]</t>
-  </si>
-  <si>
-    <t>PATO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/pato.owl</t>
-  </si>
-  <si>
-    <t>continuant [BFO:0000002]</t>
-  </si>
-  <si>
-    <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/po.owl</t>
-  </si>
-  <si>
-    <t>plant anatomical entity [PO:0025131]</t>
-  </si>
-  <si>
-    <t>whole plant [PO:0000003]</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ro.owl</t>
-  </si>
-  <si>
-    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]</t>
-  </si>
-  <si>
-    <t>RO-CORE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ro/core.owl</t>
-  </si>
-  <si>
-    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]; is part of [BFO:0000050]; has quality [RO:0000086]</t>
-  </si>
-  <si>
-    <t>SEPIO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/sepio.owl</t>
-  </si>
-  <si>
-    <t>planned process [OBI:0000011]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>research activity [SEPIO:0000004];</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>research study [SEPIO:0000125]</t>
-    </r>
-  </si>
-  <si>
-    <t>UBERON-ANATOMY</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/uberon.owl</t>
-  </si>
-  <si>
-    <t>anatomical entity [UBERON:0001062]</t>
-  </si>
-  <si>
-    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314];respiratory system [UBERON:0001004]</t>
-  </si>
-  <si>
-    <t>UBERON-PROCESS</t>
-  </si>
-  <si>
-    <t>processual entity [UBERON:0000000]</t>
-  </si>
-  <si>
-    <t>Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/hp.owl</t>
-  </si>
-  <si>
-    <t>aortic stiffness [HP:0030965]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061]; within-country location [BCIO:026002]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]; prescribing behaviour [BCIO:050354]; within-country location [BCIO:026002]</t>
+      </rPr>
+      <t>; pathological bodily process [OGMS:0000061]</t>
     </r>
   </si>
 </sst>
@@ -534,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -690,10 +689,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -874,19 +869,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,7 +918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="333.75" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="333.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -934,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -943,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -960,7 +955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -977,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -994,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="327" customHeight="1">
+    <row r="7" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1005,380 +1000,380 @@
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1">
-      <c r="A8" t="s">
-        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="121.5" customHeight="1">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="81" customHeight="1">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="74.25" customHeight="1">
+    <row r="13" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1">
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A18" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A19" t="s">
+      <c r="D19" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.5" customHeight="1">
+    <row r="23" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="86.25" customHeight="1">
+    <row r="24" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" customHeight="1">
+    <row r="25" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="86.25" customHeight="1">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>88</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>91</v>
       </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A27" t="s">
+      <c r="B28" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1048569" ht="12.75" customHeight="1"/>
-    <row r="1048570" ht="12.75" customHeight="1"/>
-    <row r="1048571" ht="12.75" customHeight="1"/>
-    <row r="1048572" ht="12.75" customHeight="1"/>
-    <row r="1048573" ht="12.75" customHeight="1"/>
-    <row r="1048574" ht="12.75" customHeight="1"/>
-    <row r="1048575" ht="12.75" customHeight="1"/>
-    <row r="1048576" ht="12.75" customHeight="1"/>
+    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4504E-C872-6348-AADA-29409BACEB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D893A3-A8DD-7144-BE81-F8082F87FE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1021,7 @@
         <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1"/>
     </row>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D893A3-A8DD-7144-BE81-F8082F87FE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA6D63-D721-7F45-80B3-1E5649FB0B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA6D63-D721-7F45-80B3-1E5649FB0B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A873718A-402E-F94C-955F-1430729DD16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,9 +197,6 @@
     <t>http://purl.obolibrary.org/obo/ero.owl</t>
   </si>
   <si>
-    <t>intubation [ERO:0001108]</t>
-  </si>
-  <si>
     <t>IAO</t>
   </si>
   <si>
@@ -431,6 +428,81 @@
   </si>
   <si>
     <r>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]; psychotropic drug [CHEBI:35471]; opioid analgesic [CHEBI:35482]; antitussive [CHEBI:51177]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>; second generation antipsychotic [CHEBI:65191]</t>
+    </r>
+  </si>
+  <si>
+    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">smoke [ENVO:01000838]; environmental system [ENVO:01000254]; shop [ENVO:00002221]; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>human construction [ENVO:00000070]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; aerosol [ENVO:00010505]; building [ENVO:00000073]; commercial building [ENVO:01001222]; environmental disposition [ENVO:01000452]; laboratory facility [ENVO:01001406]; construction [ENVO:01001813]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>disease [OGMS:0000031]; treatment satisfaction [OGMS:0000090]; injury [OGMS:0000102]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>; pathological bodily process [OGMS:0000061]</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061]; within-country location [BCIO:026002]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; </t>
     </r>
     <r>
@@ -450,83 +522,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015050]; prescribing behaviour [BCIO:050354]; within-country location [BCIO:026002]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Antidepressant drug [CHEBI:35469];Antimanic drug [CHEBI:35477];Antipsychotic drug [CHEBI:35476];Anxiolytic drug [CHEBI:35474];Central nervous system depressent [CHEBI:35488];Central nervous system drug [CHEBI:35470];Pharmaceutical [CHEBI:52217];Tranquilizing drug  [CHEBI:35473];Drug [CHEBI:23888]; psychotropic drug [CHEBI:35471]; opioid analgesic [CHEBI:35482]; antitussive [CHEBI:51177]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>; second generation antipsychotic [CHEBI:65191]</t>
-    </r>
-  </si>
-  <si>
-    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">smoke [ENVO:01000838]; environmental system [ENVO:01000254]; shop [ENVO:00002221]; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>human construction [ENVO:00000070]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; aerosol [ENVO:00010505]; building [ENVO:00000073]; commercial building [ENVO:01001222]; environmental disposition [ENVO:01000452]; laboratory facility [ENVO:01001406]; construction [ENVO:01001813]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>disease [OGMS:0000031]; treatment satisfaction [OGMS:0000090]; injury [OGMS:0000102]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t>; pathological bodily process [OGMS:0000061]</t>
-    </r>
+      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; prescribing behaviour [BCIO:050354]; within-country location [BCIO:026002]</t>
+    </r>
+  </si>
+  <si>
+    <t>intubation [ERO:0001108]; agent delivery [ERO:0000643]</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1000,7 +1000,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1018,7 +1018,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1070,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1095,16 +1095,16 @@
     </row>
     <row r="13" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -1146,16 +1146,16 @@
     </row>
     <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -1163,16 +1163,16 @@
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -1181,16 +1181,16 @@
     </row>
     <row r="18" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1215,16 +1215,16 @@
     </row>
     <row r="20" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1232,16 +1232,16 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1249,16 +1249,16 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -1266,16 +1266,16 @@
     </row>
     <row r="23" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -1283,16 +1283,16 @@
     </row>
     <row r="24" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="25" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1317,16 +1317,16 @@
     </row>
     <row r="26" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1334,16 +1334,16 @@
     </row>
     <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1351,16 +1351,16 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A873718A-402E-F94C-955F-1430729DD16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A873718A-402E-F94C-955F-1430729DD16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F77942E-F5D1-423A-91B9-6F00DA264F10}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -502,8 +502,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061]; within-country location [BCIO:026002]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; </t>
+    <t>intubation [ERO:0001108]; agent delivery [ERO:0000643]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">outpatient role [BCIO:015425]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015240]; person experiencing homelessness [BCIO:015205]; </t>
     </r>
     <r>
       <rPr>
@@ -522,18 +525,15 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; prescribing behaviour [BCIO:050354]; within-country location [BCIO:026002]</t>
-    </r>
-  </si>
-  <si>
-    <t>intubation [ERO:0001108]; agent delivery [ERO:0000643]</t>
+      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -869,19 +869,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="333.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -938,7 +938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -955,7 +955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -972,7 +972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="327" customHeight="1">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="117" customHeight="1">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="121.5" customHeight="1">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="81" customHeight="1">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1087,13 +1087,13 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="74.25" customHeight="1">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="43.5" customHeight="1">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="31.5" customHeight="1">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="43.5" customHeight="1">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="43.5" customHeight="1">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="86.25" customHeight="1">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="31.5" customHeight="1">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="86.25" customHeight="1">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="29.25" customHeight="1">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1366,14 +1366,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048569" ht="12.75" customHeight="1"/>
+    <row r="1048570" ht="12.75" customHeight="1"/>
+    <row r="1048571" ht="12.75" customHeight="1"/>
+    <row r="1048572" ht="12.75" customHeight="1"/>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A873718A-402E-F94C-955F-1430729DD16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F77942E-F5D1-423A-91B9-6F00DA264F10}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A873718A-402E-F94C-955F-1430729DD16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D060DA7-7386-41E0-A725-800469511A29}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]</t>
+      <t>personal role [BCIO:006081]; inpatient role [BCIO:015420]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]</t>
     </r>
   </si>
 </sst>
@@ -689,6 +689,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,7 +874,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A873718A-402E-F94C-955F-1430729DD16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D060DA7-7386-41E0-A725-800469511A29}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A873718A-402E-F94C-955F-1430729DD16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C2B1A81-B96C-479D-8098-7E0E212C6A82}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,7 +874,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>advocacy organisation [GSSO:005379]</t>
+          <t>health organisation [GSSO:007328]; advocacy organisation [GSSO:005379]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1154,7 +1154,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
     </row>
     <row r="1048569" ht="12.75" customHeight="1"/>
     <row r="1048570" ht="12.75" customHeight="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>health organisation [GSSO:007328]; advocacy organisation [GSSO:005379]</t>
+          <t>health organisation [GSSO:007328]; advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>health organisation [GSSO:007328]; advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]</t>
+          <t>health organisation [GSSO:007328]; non-profit organisation [GSSO:004615]; advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -673,7 +673,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F9BE532E130329440741FFD729CCDA158CBEE0E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B63013D-A60B-4E4F-8C7E-FF11EDA487F6}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F9BE532E130329440741FFD729CCDA158CBEE0E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F127FED-26C9-4445-8880-9E21C2A2560E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>chemical entity [CHEBI:24431]</t>
   </si>
   <si>
-    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:38164];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
-  </si>
-  <si>
     <t>CHEBI-DRUG-ROLE</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
   </si>
   <si>
     <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]</t>
+  </si>
+  <si>
+    <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:16714];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -732,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -803,7 +803,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -812,16 +812,16 @@
     </row>
     <row r="8" spans="1:6" ht="117" customHeight="1">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -830,16 +830,16 @@
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -847,16 +847,16 @@
     </row>
     <row r="10" spans="1:6" ht="121.5" customHeight="1">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -864,16 +864,16 @@
     </row>
     <row r="11" spans="1:6" ht="250.5" customHeight="1">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -881,16 +881,16 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -898,16 +898,16 @@
     </row>
     <row r="13" spans="1:6" ht="74.25" customHeight="1">
       <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -915,16 +915,16 @@
     </row>
     <row r="14" spans="1:6" ht="43.5" customHeight="1">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -932,16 +932,16 @@
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -949,16 +949,16 @@
     </row>
     <row r="16" spans="1:6" ht="29.25" customHeight="1">
       <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -966,16 +966,16 @@
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="18" spans="1:6" ht="31.5" customHeight="1">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -1001,16 +1001,16 @@
     </row>
     <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -1018,16 +1018,16 @@
     </row>
     <row r="20" spans="1:6" ht="43.5" customHeight="1">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1035,16 +1035,16 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -1052,16 +1052,16 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -1069,16 +1069,16 @@
     </row>
     <row r="23" spans="1:6" ht="43.5" customHeight="1">
       <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -1086,16 +1086,16 @@
     </row>
     <row r="24" spans="1:6" ht="86.25" customHeight="1">
       <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -1103,16 +1103,16 @@
     </row>
     <row r="25" spans="1:6" ht="31.5" customHeight="1">
       <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1120,16 +1120,16 @@
     </row>
     <row r="26" spans="1:6" ht="86.25" customHeight="1">
       <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -1137,16 +1137,16 @@
     </row>
     <row r="27" spans="1:6" ht="29.25" customHeight="1">
       <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
         <v>92</v>
       </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
@@ -1154,16 +1154,16 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1171,16 +1171,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F9BE532E130329440741FFD729CCDA158CBEE0E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F127FED-26C9-4445-8880-9E21C2A2560E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847FED2-9D3B-4975-9AF3-AE52EFB505DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="28170" windowHeight="14040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -322,10 +322,10 @@
     <t>health organisation [GSSO:007328]; non-profit organisation [GSSO:004615]; advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]</t>
-  </si>
-  <si>
     <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:16714];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
+  </si>
+  <si>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]</t>
   </si>
 </sst>
 </file>
@@ -488,10 +488,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,7 +669,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -732,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -803,7 +799,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1847FED2-9D3B-4975-9AF3-AE52EFB505DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="28170" windowHeight="14040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="28180" windowHeight="14040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -88,9 +88,6 @@
     <t>CHEBI-BIO-ROLE</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/chebi.owl</t>
-  </si>
-  <si>
     <t>biological role [CHEBI:24432]</t>
   </si>
   <si>
@@ -304,15 +301,6 @@
     <t>Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/hp.owl</t>
-  </si>
-  <si>
-    <t>aortic stiffness [HP:0030965]</t>
-  </si>
-  <si>
     <t>GSSO</t>
   </si>
   <si>
@@ -326,13 +314,16 @@
   </si>
   <si>
     <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]</t>
+  </si>
+  <si>
+    <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/chebi_lite.owl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,21 +657,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -717,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -728,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -737,7 +728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -754,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -771,425 +762,408 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="327" customHeight="1">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="121.5" customHeight="1">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="250.5" customHeight="1">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="74.25" customHeight="1">
+    <row r="13" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1">
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>61</v>
       </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>65</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.5" customHeight="1">
+    <row r="23" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="86.25" customHeight="1">
+    <row r="24" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.5" customHeight="1">
+    <row r="25" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>86</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="86.25" customHeight="1">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>90</v>
       </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
         <v>91</v>
       </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>93</v>
       </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>94</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
-      </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1048569" ht="12.75" customHeight="1"/>
-    <row r="1048570" ht="12.75" customHeight="1"/>
-    <row r="1048571" ht="12.75" customHeight="1"/>
-    <row r="1048572" ht="12.75" customHeight="1"/>
-    <row r="1048573" ht="12.75" customHeight="1"/>
-    <row r="1048574" ht="12.75" customHeight="1"/>
-    <row r="1048575" ht="12.75" customHeight="1"/>
-    <row r="1048576" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10D3FD1-7527-49CF-A91C-F9195209DFC0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="28180" windowHeight="14040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -176,15 +176,6 @@
   </si>
   <si>
     <t>subjective emotional feeling [MFOEM:000006]; appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
-  </si>
-  <si>
-    <t>OAE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/oae.owl</t>
-  </si>
-  <si>
-    <t>adverse effect [OAE:0001000];adverse event [OAE:0000001];adverse event outcome [OAE:0003232]</t>
   </si>
   <si>
     <t>OBCS</t>
@@ -323,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -657,21 +648,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1048575"/>
+  <dimension ref="A1:F1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -708,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -719,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -728,7 +719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -745,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -762,12 +753,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -779,30 +770,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="327" customHeight="1">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="117" customHeight="1">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -815,7 +806,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -832,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="121.5" customHeight="1">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -849,7 +840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="250.5" customHeight="1">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -866,7 +857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -883,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="74.25" customHeight="1">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -900,7 +891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="43.5" customHeight="1">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -917,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -934,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -948,10 +939,11 @@
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" customHeight="1">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -961,15 +953,14 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="17.25" customHeight="1">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -977,33 +968,33 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="43.5" customHeight="1">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1011,41 +1002,41 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.5" customHeight="1">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>75</v>
@@ -1054,7 +1045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="86.25" customHeight="1">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1071,7 +1062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -1079,38 +1070,38 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="86.25" customHeight="1">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" t="s">
-        <v>87</v>
       </c>
       <c r="C26" t="s">
         <v>88</v>
@@ -1122,48 +1113,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
         <v>92</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048567" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1"/>
+    <row r="1048569" ht="12.75" customHeight="1"/>
+    <row r="1048570" ht="12.75" customHeight="1"/>
+    <row r="1048571" ht="12.75" customHeight="1"/>
+    <row r="1048572" ht="12.75" customHeight="1"/>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10D3FD1-7527-49CF-A91C-F9195209DFC0}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96706D4B-8157-41F3-9807-D4F738A51D3D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -290,15 +290,6 @@
   </si>
   <si>
     <t>Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
-  </si>
-  <si>
-    <t>GSSO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/gsso.owl</t>
-  </si>
-  <si>
-    <t>health organisation [GSSO:007328]; non-profit organisation [GSSO:004615]; advocacy organisation [GSSO:005379]; human rights organisation [GSSO:003501]</t>
   </si>
   <si>
     <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:16714];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
@@ -470,6 +461,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -648,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1048574"/>
+  <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -710,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -758,7 +753,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -775,13 +770,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -793,7 +788,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -823,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="121.5" customHeight="1">
+    <row r="10" spans="1:6" ht="129.75" customHeight="1">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1113,23 +1108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="1048566" ht="12.75" customHeight="1"/>
     <row r="1048567" ht="12.75" customHeight="1"/>
     <row r="1048568" ht="12.75" customHeight="1"/>
     <row r="1048569" ht="12.75" customHeight="1"/>
@@ -1137,7 +1116,6 @@
     <row r="1048571" ht="12.75" customHeight="1"/>
     <row r="1048572" ht="12.75" customHeight="1"/>
     <row r="1048573" ht="12.75" customHeight="1"/>
-    <row r="1048574" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96706D4B-8157-41F3-9807-D4F738A51D3D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0534381-D8A1-4E97-9A80-3FAF06165241}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -202,12 +202,6 @@
     <t>http://purl.obolibrary.org/obo/ogms.owl</t>
   </si>
   <si>
-    <t>disorder [OGMS:0000045]</t>
-  </si>
-  <si>
-    <t>﻿disease [OGMS:0000031]; treatment satisfaction [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]</t>
-  </si>
-  <si>
     <t>OMRSE</t>
   </si>
   <si>
@@ -299,6 +293,9 @@
   </si>
   <si>
     <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/chebi_lite.owl</t>
+  </si>
+  <si>
+    <t>﻿disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]</t>
   </si>
 </sst>
 </file>
@@ -645,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -655,6 +652,7 @@
     <col min="2" max="2" width="52.125" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -705,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -731,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -753,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -770,13 +768,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -788,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -955,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.25" customHeight="1">
+    <row r="18" spans="1:5" ht="59.25" customHeight="1">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -963,10 +961,10 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -974,16 +972,16 @@
     </row>
     <row r="19" spans="1:5" ht="43.5" customHeight="1">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -991,16 +989,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1008,16 +1006,16 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -1025,16 +1023,16 @@
     </row>
     <row r="22" spans="1:5" ht="43.5" customHeight="1">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -1042,16 +1040,16 @@
     </row>
     <row r="23" spans="1:5" ht="86.25" customHeight="1">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -1059,16 +1057,16 @@
     </row>
     <row r="24" spans="1:5" ht="31.5" customHeight="1">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1076,16 +1074,16 @@
     </row>
     <row r="25" spans="1:5" ht="86.25" customHeight="1">
       <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1093,16 +1091,16 @@
     </row>
     <row r="26" spans="1:5" ht="29.25" customHeight="1">
       <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0534381-D8A1-4E97-9A80-3FAF06165241}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{657C1D16-EB28-4827-B2AF-9277DFAE488F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,7 @@
     <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/chebi_lite.owl</t>
   </si>
   <si>
-    <t>﻿disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]</t>
+    <t>﻿disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]; healthcare process [OGMS:0000096]</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F1048573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{657C1D16-EB28-4827-B2AF-9277DFAE488F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60939366-BA21-481C-B2CC-016E18DFECD7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,13 +289,13 @@
     <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:16714];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]</t>
-  </si>
-  <si>
     <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/chebi_lite.owl</t>
   </si>
   <si>
     <t>﻿disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]; healthcare process [OGMS:0000096]</t>
+  </si>
+  <si>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -651,7 +651,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="52.125" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -751,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -768,7 +768,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -786,7 +786,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60939366-BA21-481C-B2CC-016E18DFECD7}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91E1091D-F243-4E37-932D-BB4A4EE6AE43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,10 +292,10 @@
     <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/chebi_lite.owl</t>
   </si>
   <si>
-    <t>﻿disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]; healthcare process [OGMS:0000096]</t>
-  </si>
-  <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]</t>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]</t>
+  </si>
+  <si>
+    <t>﻿disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]; health care process [OGMS:0000096]</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -936,7 +936,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1">
+    <row r="17" spans="1:5" ht="61.5" customHeight="1">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91E1091D-F243-4E37-932D-BB4A4EE6AE43}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF41334-8C36-47BB-8644-F8662EC1B180}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -292,10 +292,10 @@
     <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/chebi_lite.owl</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]</t>
-  </si>
-  <si>
     <t>﻿disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]; health care process [OGMS:0000096]</t>
+  </si>
+  <si>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="52.125" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="75" customWidth="1"/>
+    <col min="4" max="4" width="81.375" customWidth="1"/>
     <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF41334-8C36-47BB-8644-F8662EC1B180}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5291D5-ED46-D14A-80D2-03660252F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="740" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>http://purl.obolibrary.org/obo/sepio.owl</t>
   </si>
   <si>
-    <t>planned process [OBI:0000011]</t>
-  </si>
-  <si>
     <t>research activity [SEPIO:0000004];﻿research study [SEPIO:0000125]</t>
   </si>
   <si>
@@ -296,13 +293,16 @@
   </si>
   <si>
     <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]</t>
+  </si>
+  <si>
+    <t>research activity [SEPIO:0000004]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,10 +458,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,20 +638,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="81.375" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -692,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -703,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -712,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -729,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -746,12 +742,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -763,30 +759,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="327" customHeight="1">
+    <row r="7" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1">
+    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -799,7 +795,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -816,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="129.75" customHeight="1">
+    <row r="10" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -833,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="250.5" customHeight="1">
+    <row r="11" spans="1:6" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -850,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -867,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="74.25" customHeight="1">
+    <row r="13" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -884,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1">
+    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -901,7 +897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -918,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -936,7 +932,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="61.5" customHeight="1">
+    <row r="17" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -953,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="59.25" customHeight="1">
+    <row r="18" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -964,13 +960,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.5" customHeight="1">
+    <row r="19" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -987,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1021,7 +1017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.5" customHeight="1">
+    <row r="22" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1038,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="86.25" customHeight="1">
+    <row r="23" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1055,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1063,57 +1059,57 @@
         <v>78</v>
       </c>
       <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>80</v>
       </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="86.25" customHeight="1">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>81</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>84</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="1048566" ht="12.75" customHeight="1"/>
-    <row r="1048567" ht="12.75" customHeight="1"/>
-    <row r="1048568" ht="12.75" customHeight="1"/>
-    <row r="1048569" ht="12.75" customHeight="1"/>
-    <row r="1048570" ht="12.75" customHeight="1"/>
-    <row r="1048571" ht="12.75" customHeight="1"/>
-    <row r="1048572" ht="12.75" customHeight="1"/>
-    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5291D5-ED46-D14A-80D2-03660252F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5D5291D5-ED46-D14A-80D2-03660252F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{909BC4B3-F747-4A07-AFCC-FCC4244E10B8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="740" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -292,17 +292,17 @@
     <t>﻿disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]; health care process [OGMS:0000096]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]</t>
-  </si>
-  <si>
     <t>research activity [SEPIO:0000004]</t>
+  </si>
+  <si>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,20 +638,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="52.125" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="81.375" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="409.5" customHeight="1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -699,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -725,7 +725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -742,7 +742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -759,7 +759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="327" customHeight="1">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -777,7 +777,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="117" customHeight="1">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -795,7 +795,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -812,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="129.75" customHeight="1">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -829,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="250.5" customHeight="1">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -846,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -863,7 +863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="74.25" customHeight="1">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -880,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="43.5" customHeight="1">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -914,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -932,7 +932,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="61.5" customHeight="1">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="59.25" customHeight="1">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -966,7 +966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="43.5" customHeight="1">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="43.5" customHeight="1">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="86.25" customHeight="1">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>79</v>
@@ -1068,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="86.25" customHeight="1">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="29.25" customHeight="1">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1102,14 +1102,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1048566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048566" ht="12.75" customHeight="1"/>
+    <row r="1048567" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1"/>
+    <row r="1048569" ht="12.75" customHeight="1"/>
+    <row r="1048570" ht="12.75" customHeight="1"/>
+    <row r="1048571" ht="12.75" customHeight="1"/>
+    <row r="1048572" ht="12.75" customHeight="1"/>
+    <row r="1048573" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5D5291D5-ED46-D14A-80D2-03660252F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{909BC4B3-F747-4A07-AFCC-FCC4244E10B8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5D5291D5-ED46-D14A-80D2-03660252F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C81DA4-49DE-4D69-8490-DE9371F92E2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,6 +458,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -638,14 +642,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="52.125" customWidth="1"/>
+    <col min="2" max="2" width="58.875" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="81.375" customWidth="1"/>
     <col min="5" max="5" width="22.625" customWidth="1"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/addiction-ontology/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\User3\Work\Projects\Human Behaviour Change Project\Ontologies\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{5D5291D5-ED46-D14A-80D2-03660252F376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58C81DA4-49DE-4D69-8490-DE9371F92E2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430228D7-6C7F-467E-AA80-AC9BF3D73A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
     <t>research activity [SEPIO:0000004]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]</t>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]</t>
   </si>
 </sst>
 </file>
@@ -458,10 +458,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,17 +638,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="58.875" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="81.375" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="58.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\User3\Work\Projects\Human Behaviour Change Project\Ontologies\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430228D7-6C7F-467E-AA80-AC9BF3D73A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF167C2-E969-4E9A-8079-08B1CEE299A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>http://purl.obolibrary.org/obo/envo.owl</t>
   </si>
   <si>
-    <t>smoke [ENVO:01000838]; environmental system [ENVO:01000254]; shop [ENVO:00002221]; ﻿human construction [ENVO:00000070]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; aerosol [ENVO:00010505]; building [ENVO:00000073]; commercial building [ENVO:01001222]; environmental disposition [ENVO:01000452]; laboratory facility [ENVO:01001406]; construction [ENVO:01001813]</t>
-  </si>
-  <si>
     <t>ERO</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]</t>
+  </si>
+  <si>
+    <t>smoke [ENVO:01000838]; environmental system [ENVO:01000254]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; aerosol [ENVO:00010505]; environmental disposition [ENVO:01000452]</t>
   </si>
 </sst>
 </file>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -699,7 +699,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -747,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -764,13 +764,13 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -848,16 +848,16 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -865,16 +865,16 @@
     </row>
     <row r="13" spans="1:6" ht="74.25" customHeight="1">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -882,16 +882,16 @@
     </row>
     <row r="14" spans="1:6" ht="43.5" customHeight="1">
       <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
@@ -899,16 +899,16 @@
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -916,16 +916,16 @@
     </row>
     <row r="16" spans="1:6" ht="29.25" customHeight="1">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="17" spans="1:5" ht="61.5" customHeight="1">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -951,16 +951,16 @@
     </row>
     <row r="18" spans="1:5" ht="59.25" customHeight="1">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -968,16 +968,16 @@
     </row>
     <row r="19" spans="1:5" ht="43.5" customHeight="1">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
@@ -985,16 +985,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1002,16 +1002,16 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -1019,16 +1019,16 @@
     </row>
     <row r="22" spans="1:5" ht="43.5" customHeight="1">
       <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -1036,16 +1036,16 @@
     </row>
     <row r="23" spans="1:5" ht="86.25" customHeight="1">
       <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="24" spans="1:5" ht="31.5" customHeight="1">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
     </row>
     <row r="25" spans="1:5" ht="86.25" customHeight="1">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -1087,16 +1087,16 @@
     </row>
     <row r="26" spans="1:5" ht="29.25" customHeight="1">
       <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>smoke [ENVO:01000838]; environmental system [ENVO:01000254]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; aerosol [ENVO:00010505]; environmental disposition [ENVO:01000452]</t>
+          <t>smoke [ENVO:01000838]; fire [ENVO:01000786]; environmental system [ENVO:01000254]; construction [ENVO:01001813]; environmental disposition [ENVO:01000452]; aerosol [ENVO:00010505]; environmental material [ENVO:00010483]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>smoke [ENVO:01000838]; fire [ENVO:01000786]; environmental system [ENVO:01000254]; construction [ENVO:01001813]; environmental disposition [ENVO:01000452]; aerosol [ENVO:00010505]; environmental material [ENVO:00010483]</t>
+          <t>smoke [ENVO:01000838]; fire [ENVO:01000786]; environmental system [ENVO:01000254]; human construction [ENVO:00000070]; construction [ENVO:01001813]; environmental disposition [ENVO:01000452]; aerosol [ENVO:00010505]; environmental material [ENVO:00010483]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF4AF54-52EE-426C-A99C-378674C548C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE998F3C-0B78-464B-A0E6-16834969190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>http://humanbehaviourchange.org/ontology/bcio.owl</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]</t>
-  </si>
-  <si>
     <t>"BCIO: http://humanbehaviourchange.org/ontology/BCIO_"</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
+  </si>
+  <si>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -686,27 +686,27 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="117" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -714,33 +714,33 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="86.25" customHeight="1">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -748,16 +748,16 @@
     </row>
     <row r="6" spans="1:6" ht="327" customHeight="1">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -766,16 +766,16 @@
     </row>
     <row r="7" spans="1:6" ht="117" customHeight="1">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -801,16 +801,16 @@
     </row>
     <row r="9" spans="1:6" ht="129.75" customHeight="1">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="10" spans="1:6" ht="250.5" customHeight="1">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -835,33 +835,33 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="74.25" customHeight="1">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="13" spans="1:6" ht="43.5" customHeight="1">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -886,16 +886,16 @@
     </row>
     <row r="14" spans="1:6" ht="29.25" customHeight="1">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -903,16 +903,16 @@
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="16" spans="1:6" ht="61.5" customHeight="1">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="17" spans="1:5" ht="59.25" customHeight="1">
       <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -955,16 +955,16 @@
     </row>
     <row r="18" spans="1:5" ht="43.5" customHeight="1">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -972,16 +972,16 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -989,67 +989,67 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1">
       <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="86.25" customHeight="1">
       <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.5" customHeight="1">
       <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="24" spans="1:5" ht="86.25" customHeight="1">
       <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="25" spans="1:5" ht="29.25" customHeight="1">
       <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\User3\Work\Projects\Human Behaviour Change Project\Ontologies\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE998F3C-0B78-464B-A0E6-16834969190E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F849F73-7159-4925-92D4-D87B3BE87C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -203,9 +203,6 @@
     <t>http://purl.obolibrary.org/obo/obi.owl</t>
   </si>
   <si>
-    <t>﻿extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]</t>
-  </si>
-  <si>
     <t>OGMS</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]</t>
+  </si>
+  <si>
+    <t>﻿extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]; drug role [OBI:0000040]</t>
   </si>
 </sst>
 </file>
@@ -642,17 +642,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="58.875" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="81.375" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="58.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="17" spans="1:5" ht="59.25" customHeight="1">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -955,16 +955,16 @@
     </row>
     <row r="18" spans="1:5" ht="43.5" customHeight="1">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -972,16 +972,16 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1">
       <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -1023,16 +1023,16 @@
     </row>
     <row r="22" spans="1:5" ht="86.25" customHeight="1">
       <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="23" spans="1:5" ht="31.5" customHeight="1">
       <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="24" spans="1:5" ht="86.25" customHeight="1">
       <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="25" spans="1:5" ht="29.25" customHeight="1">
       <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\User3\Work\Projects\Human Behaviour Change Project\Ontologies\addiction-ontology\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F849F73-7159-4925-92D4-D87B3BE87C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C2A63-8BEF-46AF-BA8B-E37F53F60C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>continuant [BFO:0000002]</t>
   </si>
   <si>
-    <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]</t>
-  </si>
-  <si>
     <t>PO</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>﻿extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]; drug role [OBI:0000040]</t>
+  </si>
+  <si>
+    <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]; molecular quality [PATO:0002182]</t>
   </si>
 </sst>
 </file>
@@ -642,17 +642,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="58.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.58203125" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.58203125" customWidth="1"/>
+    <col min="2" max="2" width="58.875" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="81.375" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="54" customHeight="1">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -981,7 +981,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1">
       <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -1023,16 +1023,16 @@
     </row>
     <row r="22" spans="1:5" ht="86.25" customHeight="1">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="23" spans="1:5" ht="31.5" customHeight="1">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="24" spans="1:5" ht="86.25" customHeight="1">
       <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="25" spans="1:5" ht="29.25" customHeight="1">
       <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987C2A63-8BEF-46AF-BA8B-E37F53F60C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556C6FDA-B718-483D-A7C9-63E9236BEEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
   </si>
   <si>
-    <t>subjective emotional feeling [MFOEM:000006]; appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
-  </si>
-  <si>
     <t>OBCS</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]; molecular quality [PATO:0002182]</t>
+  </si>
+  <si>
+    <t>subjective emotional feeling [MFOEM:000006]; emotional-relevance appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -903,16 +903,16 @@
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="16" spans="1:6" ht="61.5" customHeight="1">
       <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="17" spans="1:5" ht="59.25" customHeight="1">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -955,16 +955,16 @@
     </row>
     <row r="18" spans="1:5" ht="43.5" customHeight="1">
       <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -972,16 +972,16 @@
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1">
       <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -989,16 +989,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="21" spans="1:5" ht="43.5" customHeight="1">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -1023,16 +1023,16 @@
     </row>
     <row r="22" spans="1:5" ht="86.25" customHeight="1">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="23" spans="1:5" ht="31.5" customHeight="1">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="24" spans="1:5" ht="86.25" customHeight="1">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>79</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="25" spans="1:5" ht="29.25" customHeight="1">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556C6FDA-B718-483D-A7C9-63E9236BEEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F80082-306C-4C13-A608-CE28B36A877E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]</t>
-  </si>
-  <si>
     <t>﻿extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]; drug role [OBI:0000040]</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>subjective emotional feeling [MFOEM:000006]; emotional-relevance appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
+  </si>
+  <si>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -686,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -981,7 +981,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F80082-306C-4C13-A608-CE28B36A877E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA62BEB-5869-479A-904B-FAEA32713A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>subjective emotional feeling [MFOEM:000006]; emotional-relevance appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]</t>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA62BEB-5869-479A-904B-FAEA32713A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5327B1C-1A7A-4384-8D21-B9CF1EF2D1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>subjective emotional feeling [MFOEM:000006]; emotional-relevance appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]</t>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5327B1C-1A7A-4384-8D21-B9CF1EF2D1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B5127-1F53-48E7-8FDB-96427DA1BB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <t>subjective emotional feeling [MFOEM:000006]; emotional-relevance appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]</t>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\User3\Work\Projects\Human Behaviour Change Project\Ontologies\addiction-ontology\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45C1D08-C38D-4BF1-8D35-40BB37698B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89441FC4-5E81-4EA1-926E-6EB07CD6F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -230,6 +230,147 @@
     <t>http://purl.obolibrary.org/obo/iao.owl</t>
   </si>
   <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/mf.owl</t>
+  </si>
+  <si>
+    <t>person [MF:0000016]; mental disposition [MF:0000033]; cognitive representation [MF:0000031]; mental process [MF:0000020]</t>
+  </si>
+  <si>
+    <t>MFOEM</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
+  </si>
+  <si>
+    <t>subjective emotional feeling [MFOEM:000006]; emotional-relevance appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
+  </si>
+  <si>
+    <t>OBCS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/obcs.owl</t>
+  </si>
+  <si>
+    <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]; model [OBCS:0000035]</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/obi.owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]; drug role [OBI:0000040]</t>
+    </r>
+  </si>
+  <si>
+    <t>OGMS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ogms.owl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]; health care process [OGMS:0000096]</t>
+    </r>
+  </si>
+  <si>
+    <t>OMRSE</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/omrse.owl</t>
+  </si>
+  <si>
+    <t>residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; facility [OMRSE:00000062]</t>
+  </si>
+  <si>
+    <t>PATO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/pato.owl</t>
+  </si>
+  <si>
+    <t>continuant [BFO:0000002]</t>
+  </si>
+  <si>
+    <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]; molecular quality [PATO:0002182]</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/po.owl</t>
+  </si>
+  <si>
+    <t>plant anatomical entity [PO:0025131]</t>
+  </si>
+  <si>
+    <t>whole plant [PO:0000003]</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ro.owl</t>
+  </si>
+  <si>
+    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]</t>
+  </si>
+  <si>
+    <t>RO-CORE</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ro/core.owl</t>
+  </si>
+  <si>
+    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]; is part of [BFO:0000050]; has quality [RO:0000086]</t>
+  </si>
+  <si>
+    <t>SEPIO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/sepio.owl</t>
+  </si>
+  <si>
+    <t>research activity [SEPIO:0000004]</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -238,6 +379,75 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t>research activity [SEPIO:0000004];</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>research study [SEPIO:0000125]</t>
+    </r>
+  </si>
+  <si>
+    <t>UBERON-ANATOMY</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/uberon.owl</t>
+  </si>
+  <si>
+    <t>anatomical entity [UBERON:0001062]</t>
+  </si>
+  <si>
+    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314];respiratory system [UBERON:0001004]</t>
+  </si>
+  <si>
+    <t>UBERON-PROCESS</t>
+  </si>
+  <si>
+    <t>processual entity [UBERON:0000000]</t>
+  </si>
+  <si>
+    <t>Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]; abstinence from a behaviour [BCIO:050451]</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>is about [IAO:0000136]; data item [IAO:0000027]; report [IAO:0000088]; plan specification [IAO:0000104]; material information bearer [IAO:0000178]; document [IAO:0000310]; action specification [IAO:0000007]; directive information entity [IAO:0000033];</t>
     </r>
     <r>
@@ -257,224 +467,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>information content entity [IAO:0000030]</t>
-    </r>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/mf.owl</t>
-  </si>
-  <si>
-    <t>person [MF:0000016]; mental disposition [MF:0000033]; cognitive representation [MF:0000031]; mental process [MF:0000020]</t>
-  </si>
-  <si>
-    <t>MFOEM</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/mfoem.owl</t>
-  </si>
-  <si>
-    <t>subjective emotional feeling [MFOEM:000006]; emotional-relevance appraisal [MFOEM:000005]; emotion [MFOEM:000001]</t>
-  </si>
-  <si>
-    <t>OBCS</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/obcs.owl</t>
-  </si>
-  <si>
-    <t>Credible interval [OBCS:0000071]; Mortality ratio [OBCS:0000150]; model [OBCS:0000035]</t>
-  </si>
-  <si>
-    <t>OBI</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/obi.owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>extract [OBI:0000423]; patient role [OBI:0000093]; organisation [OBI:0000245]; dose [OBI:0000984]; protocol [OBI:0000272]; planned process [OBI:0000011]; drug role [OBI:0000040]</t>
-    </r>
-  </si>
-  <si>
-    <t>OGMS</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ogms.owl</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>disease [OGMS:0000031]; treatment [OGMS:0000090]; injury [OGMS:0000102]; pathological bodily process [OGMS:0000061]; health care process [OGMS:0000096]</t>
-    </r>
-  </si>
-  <si>
-    <t>OMRSE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/omrse.owl</t>
-  </si>
-  <si>
-    <t>residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; rehabilitation facility [OMRSE:00000106]; facility [OMRSE:00000062]</t>
-  </si>
-  <si>
-    <t>PATO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/pato.owl</t>
-  </si>
-  <si>
-    <t>continuant [BFO:0000002]</t>
-  </si>
-  <si>
-    <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]; molecular quality [PATO:0002182]</t>
-  </si>
-  <si>
-    <t>PO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/po.owl</t>
-  </si>
-  <si>
-    <t>plant anatomical entity [PO:0025131]</t>
-  </si>
-  <si>
-    <t>whole plant [PO:0000003]</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ro.owl</t>
-  </si>
-  <si>
-    <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]</t>
-  </si>
-  <si>
-    <t>RO-CORE</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ro/core.owl</t>
-  </si>
-  <si>
-    <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; derives from [RO:0001000]; has role [RO:0000087]; is part of [BFO:0000050]; has quality [RO:0000086]</t>
-  </si>
-  <si>
-    <t>SEPIO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/sepio.owl</t>
-  </si>
-  <si>
-    <t>research activity [SEPIO:0000004]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>research activity [SEPIO:0000004];</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>research study [SEPIO:0000125]</t>
-    </r>
-  </si>
-  <si>
-    <t>UBERON-ANATOMY</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/uberon.owl</t>
-  </si>
-  <si>
-    <t>anatomical entity [UBERON:0001062]</t>
-  </si>
-  <si>
-    <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314];respiratory system [UBERON:0001004]</t>
-  </si>
-  <si>
-    <t>UBERON-PROCESS</t>
-  </si>
-  <si>
-    <t>processual entity [UBERON:0000000]</t>
-  </si>
-  <si>
-    <t>Life cycle temporal boundary [UBERON:0035943]; death [UBERON:035944]; death stage [UBERON:0000071]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]; abstinence from a behaviour [BCIO:050451]</t>
+      <t>information content entity [IAO:0000030]; rule [IAO:0000055]</t>
     </r>
   </si>
 </sst>
@@ -818,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -865,7 +858,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -1043,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1051,16 +1044,16 @@
     </row>
     <row r="13" spans="1:7" ht="43.5" customHeight="1">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -1068,16 +1061,16 @@
     </row>
     <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -1085,16 +1078,16 @@
     </row>
     <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -1103,16 +1096,16 @@
     </row>
     <row r="16" spans="1:7" ht="61.5" customHeight="1">
       <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -1120,16 +1113,16 @@
     </row>
     <row r="17" spans="1:6" ht="59.25" customHeight="1">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>60</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
@@ -1137,16 +1130,16 @@
     </row>
     <row r="18" spans="1:6" ht="43.5" customHeight="1">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -1154,16 +1147,16 @@
     </row>
     <row r="19" spans="1:6" ht="54" customHeight="1">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -1171,16 +1164,16 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -1188,16 +1181,16 @@
     </row>
     <row r="21" spans="1:6" ht="43.5" customHeight="1">
       <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
         <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -1205,16 +1198,16 @@
     </row>
     <row r="22" spans="1:6" ht="86.25" customHeight="1">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -1222,16 +1215,16 @@
     </row>
     <row r="23" spans="1:6" ht="31.5" customHeight="1">
       <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1239,16 +1232,16 @@
     </row>
     <row r="24" spans="1:6" ht="86.25" customHeight="1">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1256,16 +1249,16 @@
     </row>
     <row r="25" spans="1:6" ht="29.25" customHeight="1">
       <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
         <v>87</v>
       </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]</t>
+          <t>has output [RO:0002234]; realizes [BFO:0000055]; realized in [BFO:0000054]; output of [RO:0002353]; contains [RO:0001019]; system [RO:0002577]; causally related to [RO:0002410];  temporally related to [RO:0002222]; causally influenced by [RO:0002559]; causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]; abstinence from a behaviour [BCIO:050451]</t>
+          <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]; abstinence from a behaviour [BCIO:050451]; behaviour change intervention scenario [BCIO:001000]; behaviour change intervention context [BCIO:005000]; behaviour change intervention delivery [BCIO:008000]; behaviour change intervention source [BCIO:010000]; abstinence duration [BCIO:050449]; behaviour change intervention study investigator [BCIO:030000]; research study sample [BCIO:050551]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]; abstinence from a behaviour [BCIO:050451]; behaviour change intervention scenario [BCIO:001000]; behaviour change intervention context [BCIO:005000]; behaviour change intervention delivery [BCIO:008000]; behaviour change intervention source [BCIO:010000]; abstinence duration [BCIO:050449]; behaviour change intervention study investigator [BCIO:030000]; research study sample [BCIO:050551]</t>
+          <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015002]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]; uniform process aggregate [BCIO:050267]; individual human behaviour pattern [BCIO:036100]; consumption behaviour pattern [BCIO:050210]; substance use behaviour pattern [BCIO:050211]; tobacco use behaviour pattern [BCIO:036102]; tobacco smoking behaviour pattern [BCIO:036104]; cigarette smoking behaviour pattern [BCIO:036106]; substance use behaviour [BCIO:036113]; cigarette smoking behaviour [BCIO:036105]; tobacco smoking behaviour [BCIO:036103]; tobacco use behaviour [BCIO:036114]; alcohol consumption [BCIO:050376]; behavioural intention [BCIO:006016]; process attribute [BCIO:043000]; personal history part [BCIO:050487]; having enacted a behaviour [BCIO:050477]; abstinence from a behaviour [BCIO:050451]; behaviour change intervention scenario [BCIO:001000]; behaviour change intervention context [BCIO:005000]; behaviour change intervention delivery [BCIO:008000]; behaviour change intervention source [BCIO:010000]; abstinence duration [BCIO:050449]; behaviour change intervention study investigator [BCIO:030000]; research study sample [BCIO:050551]; behaviour change intervention mechanism of action [BCIO:006000]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>object [BFO:0000030]; process [BFO:0000015]; site [BFO:0000029]; role [BFO:0000023]; disposition [BFO:0000016]; immaterial entity [BFO:0000141]; fiat object [BFO:0000024]; fiat object part [﻿BFO:0000024]; specifically dependent continuant [BFO:0000020]; process profile [BFO:0000144]; temporal region [BFO:0000008]; object aggregate [BFO:0000027]; process boundary [BFO:0000035]; occurrent [BFO:0000003]; ﻿spatial region [BFO:0000006]</t>
+          <t>object [BFO:0000030]; process [BFO:0000015]; site [BFO:0000029]; role [BFO:0000023]; disposition [BFO:0000016]; immaterial entity [BFO:0000141]; fiat object [BFO:0000024]; fiat object part [﻿BFO:0000024]; specifically dependent continuant [BFO:0000020]; process profile [BFO:0000144]; temporal region [BFO:0000008]; object aggregate [BFO:0000027]; process boundary [BFO:0000035]; occurrent [BFO:0000003]; ﻿spatial region [BFO:0000006]; occupies temporal region [BFO:0000155]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
